--- a/data/pca/factorExposure/factorExposure_2011-10-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01343641775094986</v>
+        <v>-0.01406154111270409</v>
       </c>
       <c r="C2">
-        <v>-0.03149202736803189</v>
+        <v>-0.0006334976249569242</v>
       </c>
       <c r="D2">
-        <v>0.01969737874510192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03184961697296402</v>
+      </c>
+      <c r="E2">
+        <v>-0.001826157494641348</v>
+      </c>
+      <c r="F2">
+        <v>0.03851621872797482</v>
+      </c>
+      <c r="G2">
+        <v>0.01474827595848742</v>
+      </c>
+      <c r="H2">
+        <v>0.0109824963196897</v>
+      </c>
+      <c r="I2">
+        <v>0.006617490381048724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.07775756736174788</v>
+        <v>-0.09081710009808404</v>
       </c>
       <c r="C4">
-        <v>-0.05877633111476952</v>
+        <v>-0.04173339164574605</v>
       </c>
       <c r="D4">
-        <v>0.08183768949936168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07457357636615621</v>
+      </c>
+      <c r="E4">
+        <v>0.02855332784850015</v>
+      </c>
+      <c r="F4">
+        <v>0.05149749215678027</v>
+      </c>
+      <c r="G4">
+        <v>-0.02221177938530836</v>
+      </c>
+      <c r="H4">
+        <v>-0.01603094200545353</v>
+      </c>
+      <c r="I4">
+        <v>-0.06749861739004678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.1155914950349482</v>
+        <v>-0.1271692260847463</v>
       </c>
       <c r="C6">
-        <v>-0.04831620167619373</v>
+        <v>0.004334418513201181</v>
       </c>
       <c r="D6">
-        <v>0.01094165319060101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03663213048418725</v>
+      </c>
+      <c r="E6">
+        <v>-0.02475501808557795</v>
+      </c>
+      <c r="F6">
+        <v>0.04163321102882413</v>
+      </c>
+      <c r="G6">
+        <v>-0.05415958451418478</v>
+      </c>
+      <c r="H6">
+        <v>0.1970382651408747</v>
+      </c>
+      <c r="I6">
+        <v>0.0001524424217414117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.06534919184528758</v>
+        <v>-0.06862673947348613</v>
       </c>
       <c r="C7">
-        <v>-0.04517935192589091</v>
+        <v>-0.03733233928554035</v>
       </c>
       <c r="D7">
-        <v>0.03368706155410348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05289090142195439</v>
+      </c>
+      <c r="E7">
+        <v>0.01104714522750364</v>
+      </c>
+      <c r="F7">
+        <v>0.05737289370996996</v>
+      </c>
+      <c r="G7">
+        <v>0.01479069017538252</v>
+      </c>
+      <c r="H7">
+        <v>-0.01258727041754621</v>
+      </c>
+      <c r="I7">
+        <v>-0.03917468227847639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04272053458079994</v>
+        <v>-0.04279059748820226</v>
       </c>
       <c r="C8">
-        <v>0.003387865338178363</v>
+        <v>-0.02807620461463382</v>
       </c>
       <c r="D8">
-        <v>0.06229065294222968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.008557226094232573</v>
+      </c>
+      <c r="E8">
+        <v>0.03491391543339177</v>
+      </c>
+      <c r="F8">
+        <v>0.07090141257928961</v>
+      </c>
+      <c r="G8">
+        <v>-0.04872527260658618</v>
+      </c>
+      <c r="H8">
+        <v>0.02338558988508938</v>
+      </c>
+      <c r="I8">
+        <v>-0.1168638813600869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07332423837664959</v>
+        <v>-0.08275265486129162</v>
       </c>
       <c r="C9">
-        <v>-0.04123421306341481</v>
+        <v>-0.04201521770701886</v>
       </c>
       <c r="D9">
-        <v>0.07549794928094035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05769468857733546</v>
+      </c>
+      <c r="E9">
+        <v>0.03123739063327174</v>
+      </c>
+      <c r="F9">
+        <v>0.04945234374201526</v>
+      </c>
+      <c r="G9">
+        <v>-0.03719082814390313</v>
+      </c>
+      <c r="H9">
+        <v>-0.01986806355187652</v>
+      </c>
+      <c r="I9">
+        <v>-0.07410897037008259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02534591531534283</v>
+        <v>-0.06052878344356789</v>
       </c>
       <c r="C10">
-        <v>-0.02439062710627425</v>
+        <v>0.1930177921200892</v>
       </c>
       <c r="D10">
-        <v>-0.1769715596684816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.03820650479945499</v>
+      </c>
+      <c r="E10">
+        <v>-0.0006925923210081673</v>
+      </c>
+      <c r="F10">
+        <v>0.05495532471251566</v>
+      </c>
+      <c r="G10">
+        <v>0.03939756741665418</v>
+      </c>
+      <c r="H10">
+        <v>0.04831144449243725</v>
+      </c>
+      <c r="I10">
+        <v>0.06007638070315418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.0709534158872369</v>
+        <v>-0.07440489243435701</v>
       </c>
       <c r="C11">
-        <v>-0.0370764467792403</v>
+        <v>-0.04343190537962311</v>
       </c>
       <c r="D11">
-        <v>0.05847663925344938</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04721595433458801</v>
+      </c>
+      <c r="E11">
+        <v>0.006495564519257439</v>
+      </c>
+      <c r="F11">
+        <v>0.04007094988679795</v>
+      </c>
+      <c r="G11">
+        <v>-0.04986967676241591</v>
+      </c>
+      <c r="H11">
+        <v>-0.05288155710933656</v>
+      </c>
+      <c r="I11">
+        <v>-0.06304593710912719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.06687306674478642</v>
+        <v>-0.07036695007023148</v>
       </c>
       <c r="C12">
-        <v>-0.04840228832827134</v>
+        <v>-0.03008960772005548</v>
       </c>
       <c r="D12">
-        <v>0.04522072626101227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04984452119723633</v>
+      </c>
+      <c r="E12">
+        <v>0.0133612731633852</v>
+      </c>
+      <c r="F12">
+        <v>0.02766983036559668</v>
+      </c>
+      <c r="G12">
+        <v>-0.02497387756431171</v>
+      </c>
+      <c r="H12">
+        <v>-0.02431810596424057</v>
+      </c>
+      <c r="I12">
+        <v>-0.08268605732592989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06684988892337305</v>
+        <v>-0.06539431768527333</v>
       </c>
       <c r="C13">
-        <v>-0.04609845249664719</v>
+        <v>-0.02882706894859968</v>
       </c>
       <c r="D13">
-        <v>0.06119261403851378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04781524354416482</v>
+      </c>
+      <c r="E13">
+        <v>0.05134057295114482</v>
+      </c>
+      <c r="F13">
+        <v>0.02769453177274886</v>
+      </c>
+      <c r="G13">
+        <v>-0.006269755939520419</v>
+      </c>
+      <c r="H13">
+        <v>-0.03916840896836972</v>
+      </c>
+      <c r="I13">
+        <v>-0.1025640874783283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03096880401686885</v>
+        <v>-0.0411624356888014</v>
       </c>
       <c r="C14">
-        <v>-0.03243218665879952</v>
+        <v>0.0005510763293515832</v>
       </c>
       <c r="D14">
-        <v>0.002401088246965298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03564461020876119</v>
+      </c>
+      <c r="E14">
+        <v>0.01712326577719428</v>
+      </c>
+      <c r="F14">
+        <v>0.02300145859274535</v>
+      </c>
+      <c r="G14">
+        <v>-0.02988535374849313</v>
+      </c>
+      <c r="H14">
+        <v>-0.06453958882845405</v>
+      </c>
+      <c r="I14">
+        <v>-0.05261630472670993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.04599786574499993</v>
+        <v>-0.0411459589660261</v>
       </c>
       <c r="C15">
-        <v>-0.008248729572372522</v>
+        <v>-0.01508456117261949</v>
       </c>
       <c r="D15">
-        <v>0.02538146319699617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007325728868355799</v>
+      </c>
+      <c r="E15">
+        <v>0.03716383022734394</v>
+      </c>
+      <c r="F15">
+        <v>0.003535705373195456</v>
+      </c>
+      <c r="G15">
+        <v>-0.02491967422564316</v>
+      </c>
+      <c r="H15">
+        <v>-0.01871768944025758</v>
+      </c>
+      <c r="I15">
+        <v>-0.0287058108038449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.06003994396366313</v>
+        <v>-0.07085294587549078</v>
       </c>
       <c r="C16">
-        <v>-0.03957289883470662</v>
+        <v>-0.0421417221021813</v>
       </c>
       <c r="D16">
-        <v>0.06103507780255841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05494074151780876</v>
+      </c>
+      <c r="E16">
+        <v>0.01439723320799075</v>
+      </c>
+      <c r="F16">
+        <v>0.03306154155018041</v>
+      </c>
+      <c r="G16">
+        <v>-0.0254385351632979</v>
+      </c>
+      <c r="H16">
+        <v>-0.03368665776390396</v>
+      </c>
+      <c r="I16">
+        <v>-0.0397243721675089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.06435563524050147</v>
+        <v>-0.06201756024041511</v>
       </c>
       <c r="C20">
-        <v>-0.02071641704113865</v>
+        <v>-0.03601876688610148</v>
       </c>
       <c r="D20">
-        <v>0.05485018927201416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02657278063526308</v>
+      </c>
+      <c r="E20">
+        <v>0.003489702046105801</v>
+      </c>
+      <c r="F20">
+        <v>0.03044089245936995</v>
+      </c>
+      <c r="G20">
+        <v>-0.01824812110840556</v>
+      </c>
+      <c r="H20">
+        <v>-0.04434563789353811</v>
+      </c>
+      <c r="I20">
+        <v>-0.1023323581779063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03416133434018067</v>
+        <v>-0.0295125936201232</v>
       </c>
       <c r="C21">
-        <v>-0.006169099468410502</v>
+        <v>-0.01741378721458841</v>
       </c>
       <c r="D21">
-        <v>0.007711210132056863</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.006370541116283819</v>
+      </c>
+      <c r="E21">
+        <v>0.03782364377882846</v>
+      </c>
+      <c r="F21">
+        <v>-4.730523850067802e-05</v>
+      </c>
+      <c r="G21">
+        <v>-0.003798084757524854</v>
+      </c>
+      <c r="H21">
+        <v>0.05523189301956567</v>
+      </c>
+      <c r="I21">
+        <v>-0.02912559011895865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.1117604818549608</v>
+        <v>-0.09545304153295478</v>
       </c>
       <c r="C22">
-        <v>-0.02712882138907306</v>
+        <v>-0.0494010438567738</v>
       </c>
       <c r="D22">
-        <v>0.08801105023755842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01442183020438893</v>
+      </c>
+      <c r="E22">
+        <v>0.5531188544864174</v>
+      </c>
+      <c r="F22">
+        <v>0.05955817489607967</v>
+      </c>
+      <c r="G22">
+        <v>0.271123934342997</v>
+      </c>
+      <c r="H22">
+        <v>0.1335503011381265</v>
+      </c>
+      <c r="I22">
+        <v>0.2321395199180117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.1124651768942438</v>
+        <v>-0.09627611377142963</v>
       </c>
       <c r="C23">
-        <v>-0.02807416143767862</v>
+        <v>-0.0495933304474005</v>
       </c>
       <c r="D23">
-        <v>0.08808359482541811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01557301323246951</v>
+      </c>
+      <c r="E23">
+        <v>0.5564705461251869</v>
+      </c>
+      <c r="F23">
+        <v>0.06140632161033972</v>
+      </c>
+      <c r="G23">
+        <v>0.2655332257020218</v>
+      </c>
+      <c r="H23">
+        <v>0.1332450005080831</v>
+      </c>
+      <c r="I23">
+        <v>0.2345037723570866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.07785662959834026</v>
+        <v>-0.08062473585575335</v>
       </c>
       <c r="C24">
-        <v>-0.04429952735039068</v>
+        <v>-0.04026823305850055</v>
       </c>
       <c r="D24">
-        <v>0.06303444692117292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05278792471249517</v>
+      </c>
+      <c r="E24">
+        <v>0.01895357497842701</v>
+      </c>
+      <c r="F24">
+        <v>0.04060308222389738</v>
+      </c>
+      <c r="G24">
+        <v>-0.04155360314917646</v>
+      </c>
+      <c r="H24">
+        <v>-0.02624207844665003</v>
+      </c>
+      <c r="I24">
+        <v>-0.05917699018603671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.07658895394295326</v>
+        <v>-0.07634123404724813</v>
       </c>
       <c r="C25">
-        <v>-0.05230392052178152</v>
+        <v>-0.03210882611354024</v>
       </c>
       <c r="D25">
-        <v>0.05800325523225325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05615350269421672</v>
+      </c>
+      <c r="E25">
+        <v>0.02708772514922453</v>
+      </c>
+      <c r="F25">
+        <v>0.03483816087173265</v>
+      </c>
+      <c r="G25">
+        <v>-0.04441481391016559</v>
+      </c>
+      <c r="H25">
+        <v>-0.03396461418832254</v>
+      </c>
+      <c r="I25">
+        <v>-0.07204067852300242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.04812589476826354</v>
+        <v>-0.0470790028979085</v>
       </c>
       <c r="C26">
-        <v>-0.008746674203484336</v>
+        <v>-0.01734609761308504</v>
       </c>
       <c r="D26">
-        <v>0.01192132560017996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.006506892544040251</v>
+      </c>
+      <c r="E26">
+        <v>0.03964705224767801</v>
+      </c>
+      <c r="F26">
+        <v>0.03208846884404818</v>
+      </c>
+      <c r="G26">
+        <v>-0.02012295120672842</v>
+      </c>
+      <c r="H26">
+        <v>-0.03620628600129765</v>
+      </c>
+      <c r="I26">
+        <v>-0.01503464857954592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.0446434483551623</v>
+        <v>-0.07509398569620235</v>
       </c>
       <c r="C28">
-        <v>-0.05958909206770598</v>
+        <v>0.290866546512223</v>
       </c>
       <c r="D28">
-        <v>-0.2849555055326637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0589654471992746</v>
+      </c>
+      <c r="E28">
+        <v>0.007506997074825928</v>
+      </c>
+      <c r="F28">
+        <v>0.03425028930737162</v>
+      </c>
+      <c r="G28">
+        <v>-0.02807523395309771</v>
+      </c>
+      <c r="H28">
+        <v>0.03756749242958173</v>
+      </c>
+      <c r="I28">
+        <v>0.01191024556278549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0520220875906862</v>
+        <v>-0.05430905382765064</v>
       </c>
       <c r="C29">
-        <v>-0.04622372362228561</v>
+        <v>0.004728472733335802</v>
       </c>
       <c r="D29">
-        <v>-0.003633560191597729</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03849295978402649</v>
+      </c>
+      <c r="E29">
+        <v>0.03465003046061613</v>
+      </c>
+      <c r="F29">
+        <v>0.03615664675093968</v>
+      </c>
+      <c r="G29">
+        <v>-0.01551367592647259</v>
+      </c>
+      <c r="H29">
+        <v>-0.08652590090268876</v>
+      </c>
+      <c r="I29">
+        <v>-0.04163063769006876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1391142490469367</v>
+        <v>-0.1282744499373667</v>
       </c>
       <c r="C30">
-        <v>-0.07737742540317141</v>
+        <v>-0.04321141406674409</v>
       </c>
       <c r="D30">
-        <v>0.09818507505142375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0775564180310636</v>
+      </c>
+      <c r="E30">
+        <v>0.06673255666786929</v>
+      </c>
+      <c r="F30">
+        <v>0.06459683531988143</v>
+      </c>
+      <c r="G30">
+        <v>-0.05031361978492112</v>
+      </c>
+      <c r="H30">
+        <v>0.04391565030592524</v>
+      </c>
+      <c r="I30">
+        <v>-0.3100013195164817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04986785336706868</v>
+        <v>-0.04556486395922814</v>
       </c>
       <c r="C31">
-        <v>-0.02522929589213001</v>
+        <v>-0.03001397537171326</v>
       </c>
       <c r="D31">
-        <v>0.02263961706441085</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02775855925204969</v>
+      </c>
+      <c r="E31">
+        <v>0.02404807856840302</v>
+      </c>
+      <c r="F31">
+        <v>0.01400242573417017</v>
+      </c>
+      <c r="G31">
+        <v>0.003449188364922185</v>
+      </c>
+      <c r="H31">
+        <v>-0.06157911277691364</v>
+      </c>
+      <c r="I31">
+        <v>-0.028783653605667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.03748814756795993</v>
+        <v>-0.04338820419710194</v>
       </c>
       <c r="C32">
-        <v>-0.01061519642890318</v>
+        <v>0.001847639922197387</v>
       </c>
       <c r="D32">
-        <v>0.02959070174367076</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01148532601147867</v>
+      </c>
+      <c r="E32">
+        <v>0.07393121897075239</v>
+      </c>
+      <c r="F32">
+        <v>-0.003064234051957194</v>
+      </c>
+      <c r="G32">
+        <v>-0.02477279459322744</v>
+      </c>
+      <c r="H32">
+        <v>0.01538513899737612</v>
+      </c>
+      <c r="I32">
+        <v>0.01582024085533612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.09209375128407209</v>
+        <v>-0.09679224929336386</v>
       </c>
       <c r="C33">
-        <v>-0.04418936468769465</v>
+        <v>-0.03522594603007837</v>
       </c>
       <c r="D33">
-        <v>0.04450460772540478</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04450871317677287</v>
+      </c>
+      <c r="E33">
+        <v>0.02667004794914871</v>
+      </c>
+      <c r="F33">
+        <v>0.008181500251203471</v>
+      </c>
+      <c r="G33">
+        <v>-0.001496019789597232</v>
+      </c>
+      <c r="H33">
+        <v>-0.05188008562715156</v>
+      </c>
+      <c r="I33">
+        <v>-0.07411962908670097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.06077454860046191</v>
+        <v>-0.06737843223815819</v>
       </c>
       <c r="C34">
-        <v>-0.0219248830977515</v>
+        <v>-0.0372784133783326</v>
       </c>
       <c r="D34">
-        <v>0.05625253896469316</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03362406926063369</v>
+      </c>
+      <c r="E34">
+        <v>0.02007456903240443</v>
+      </c>
+      <c r="F34">
+        <v>0.02662137021121624</v>
+      </c>
+      <c r="G34">
+        <v>-0.02607457474347704</v>
+      </c>
+      <c r="H34">
+        <v>-0.04272879652430081</v>
+      </c>
+      <c r="I34">
+        <v>-0.04964835613366365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.03743085064962472</v>
+        <v>-0.03626893394328718</v>
       </c>
       <c r="C35">
-        <v>-0.01548674019100989</v>
+        <v>-0.01308595372152411</v>
       </c>
       <c r="D35">
-        <v>0.01687000946960351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01778441017821147</v>
+      </c>
+      <c r="E35">
+        <v>0.01538269799602693</v>
+      </c>
+      <c r="F35">
+        <v>-0.01146520522197122</v>
+      </c>
+      <c r="G35">
+        <v>-0.001057207491554465</v>
+      </c>
+      <c r="H35">
+        <v>-0.03422572536981121</v>
+      </c>
+      <c r="I35">
+        <v>-0.04605995150135495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.0319898287817901</v>
+        <v>-0.03140341413880372</v>
       </c>
       <c r="C36">
-        <v>-0.01579628296192753</v>
+        <v>-0.01113596395679648</v>
       </c>
       <c r="D36">
-        <v>0.01931958333462037</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01551211341682684</v>
+      </c>
+      <c r="E36">
+        <v>0.03287536173565683</v>
+      </c>
+      <c r="F36">
+        <v>0.03655919866222711</v>
+      </c>
+      <c r="G36">
+        <v>-0.01617060012707717</v>
+      </c>
+      <c r="H36">
+        <v>-0.03499239317700104</v>
+      </c>
+      <c r="I36">
+        <v>-0.06492445910619885</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.0686917717474787</v>
+        <v>-0.060404082660852</v>
       </c>
       <c r="C38">
-        <v>-0.002009661818647232</v>
+        <v>-0.02647981008647622</v>
       </c>
       <c r="D38">
-        <v>-0.001629314352651639</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.003288798926901411</v>
+      </c>
+      <c r="E38">
+        <v>0.03882378066830188</v>
+      </c>
+      <c r="F38">
+        <v>0.007457052822434614</v>
+      </c>
+      <c r="G38">
+        <v>0.003861933052694255</v>
+      </c>
+      <c r="H38">
+        <v>-0.03548606647438009</v>
+      </c>
+      <c r="I38">
+        <v>-0.01322480168848377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.09251862344849947</v>
+        <v>-0.0984283871014504</v>
       </c>
       <c r="C39">
-        <v>-0.05676851958757208</v>
+        <v>-0.03113329325882434</v>
       </c>
       <c r="D39">
-        <v>0.04519907465975558</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06162003343659391</v>
+      </c>
+      <c r="E39">
+        <v>0.01952332138066461</v>
+      </c>
+      <c r="F39">
+        <v>0.02139282775408683</v>
+      </c>
+      <c r="G39">
+        <v>-0.03002087594666274</v>
+      </c>
+      <c r="H39">
+        <v>-0.0199888198980245</v>
+      </c>
+      <c r="I39">
+        <v>-0.06318662450078893</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.0772841181544702</v>
+        <v>-0.05741558084266155</v>
       </c>
       <c r="C40">
-        <v>-0.01799397522587043</v>
+        <v>-0.03680656653181533</v>
       </c>
       <c r="D40">
-        <v>0.02534746416958342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.004328743121356979</v>
+      </c>
+      <c r="E40">
+        <v>0.06825336716332137</v>
+      </c>
+      <c r="F40">
+        <v>-0.001535341568643531</v>
+      </c>
+      <c r="G40">
+        <v>-0.02549365514778066</v>
+      </c>
+      <c r="H40">
+        <v>0.05388691545584177</v>
+      </c>
+      <c r="I40">
+        <v>-0.257554524558427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.05276374475480569</v>
+        <v>-0.04684281927728512</v>
       </c>
       <c r="C41">
-        <v>-0.01103870953603602</v>
+        <v>-0.03362292896812875</v>
       </c>
       <c r="D41">
-        <v>0.03148004996789543</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01457792377202079</v>
+      </c>
+      <c r="E41">
+        <v>-0.005413963951676176</v>
+      </c>
+      <c r="F41">
+        <v>-0.01139605768352741</v>
+      </c>
+      <c r="G41">
+        <v>-0.02133758090902012</v>
+      </c>
+      <c r="H41">
+        <v>-0.04214493098415258</v>
+      </c>
+      <c r="I41">
+        <v>-0.03065722158918611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.05901791412514446</v>
+        <v>-0.061194604222027</v>
       </c>
       <c r="C43">
-        <v>-0.03058184427613964</v>
+        <v>-0.02284086906266711</v>
       </c>
       <c r="D43">
-        <v>0.009827556628462327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03153967690441033</v>
+      </c>
+      <c r="E43">
+        <v>0.0133905348963804</v>
+      </c>
+      <c r="F43">
+        <v>0.01898056602978706</v>
+      </c>
+      <c r="G43">
+        <v>0.004372958546825527</v>
+      </c>
+      <c r="H43">
+        <v>-0.06023919858947831</v>
+      </c>
+      <c r="I43">
+        <v>-0.002540125926717695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.09767173238443039</v>
+        <v>-0.09560740228087639</v>
       </c>
       <c r="C44">
-        <v>-0.01023128078839351</v>
+        <v>-0.04747616590622159</v>
       </c>
       <c r="D44">
-        <v>0.05334558790376832</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0182807210852158</v>
+      </c>
+      <c r="E44">
+        <v>0.07840480259323297</v>
+      </c>
+      <c r="F44">
+        <v>0.1062444663867598</v>
+      </c>
+      <c r="G44">
+        <v>-0.05215523731896941</v>
+      </c>
+      <c r="H44">
+        <v>-0.05088359807589897</v>
+      </c>
+      <c r="I44">
+        <v>-0.1253715610855111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02834523046110587</v>
+        <v>-0.04181745931292739</v>
       </c>
       <c r="C46">
-        <v>-0.02355458989629752</v>
+        <v>-0.02073489136560222</v>
       </c>
       <c r="D46">
-        <v>0.03114000090700159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03683278402682685</v>
+      </c>
+      <c r="E46">
+        <v>0.02977553602992483</v>
+      </c>
+      <c r="F46">
+        <v>0.03076379683907678</v>
+      </c>
+      <c r="G46">
+        <v>0.003220450681013649</v>
+      </c>
+      <c r="H46">
+        <v>-0.02185005468739221</v>
+      </c>
+      <c r="I46">
+        <v>-0.01117435199122369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.03916585386558564</v>
+        <v>-0.04745016437475756</v>
       </c>
       <c r="C47">
-        <v>-0.02465849039586501</v>
+        <v>0.000768076399373755</v>
       </c>
       <c r="D47">
-        <v>-0.00499870316557801</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0212574860470169</v>
+      </c>
+      <c r="E47">
+        <v>0.04167110611152734</v>
+      </c>
+      <c r="F47">
+        <v>0.005522827950918477</v>
+      </c>
+      <c r="G47">
+        <v>0.02669000966831101</v>
+      </c>
+      <c r="H47">
+        <v>-0.02182643211974172</v>
+      </c>
+      <c r="I47">
+        <v>-0.03892149929902126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.04330416031819792</v>
+        <v>-0.04198922130040344</v>
       </c>
       <c r="C48">
-        <v>-0.02255039815835698</v>
+        <v>-0.01332477526690954</v>
       </c>
       <c r="D48">
-        <v>0.02903914021515194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01804428507531539</v>
+      </c>
+      <c r="E48">
+        <v>0.04788882162431721</v>
+      </c>
+      <c r="F48">
+        <v>0.0145949389740702</v>
+      </c>
+      <c r="G48">
+        <v>-0.00917375930168325</v>
+      </c>
+      <c r="H48">
+        <v>-0.01061481088103029</v>
+      </c>
+      <c r="I48">
+        <v>-0.04562532667024007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>-0.1622894997206129</v>
+        <v>-0.2036301514715485</v>
       </c>
       <c r="C49">
-        <v>-0.03910079785518532</v>
+        <v>-0.01186856350371825</v>
       </c>
       <c r="D49">
-        <v>0.02433393690946616</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04737197910185652</v>
+      </c>
+      <c r="E49">
+        <v>-0.2109697391073191</v>
+      </c>
+      <c r="F49">
+        <v>-0.01033685576365462</v>
+      </c>
+      <c r="G49">
+        <v>0.1321808290730782</v>
+      </c>
+      <c r="H49">
+        <v>0.2374248749265735</v>
+      </c>
+      <c r="I49">
+        <v>0.07945653672998546</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.05058180384757295</v>
+        <v>-0.04981525487742169</v>
       </c>
       <c r="C50">
-        <v>-0.03603937702335457</v>
+        <v>-0.02468137453044613</v>
       </c>
       <c r="D50">
-        <v>0.03460029979101786</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04019943144675936</v>
+      </c>
+      <c r="E50">
+        <v>0.02620400732481594</v>
+      </c>
+      <c r="F50">
+        <v>0.00917477571147512</v>
+      </c>
+      <c r="G50">
+        <v>-0.01109083096673521</v>
+      </c>
+      <c r="H50">
+        <v>-0.06540939667003348</v>
+      </c>
+      <c r="I50">
+        <v>-0.02552655283718994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.02661686376588206</v>
+        <v>-0.03728319636175016</v>
       </c>
       <c r="C51">
-        <v>0.002607434502501544</v>
+        <v>0.005259136328032396</v>
       </c>
       <c r="D51">
-        <v>-0.009907900738880792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.008361891645319086</v>
+      </c>
+      <c r="E51">
+        <v>-0.00993057694259014</v>
+      </c>
+      <c r="F51">
+        <v>0.01439375953690998</v>
+      </c>
+      <c r="G51">
+        <v>0.02262503660602483</v>
+      </c>
+      <c r="H51">
+        <v>0.02125281642598375</v>
+      </c>
+      <c r="I51">
+        <v>0.01490797423251114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.155511623307953</v>
+        <v>-0.1586189855076682</v>
       </c>
       <c r="C53">
-        <v>-0.07566006888347543</v>
+        <v>-0.001032939882655296</v>
       </c>
       <c r="D53">
-        <v>-0.01159712484876694</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0571162160125024</v>
+      </c>
+      <c r="E53">
+        <v>-0.02755929149696111</v>
+      </c>
+      <c r="F53">
+        <v>-0.004878249136306341</v>
+      </c>
+      <c r="G53">
+        <v>0.002323320667103577</v>
+      </c>
+      <c r="H53">
+        <v>-0.2062191939875035</v>
+      </c>
+      <c r="I53">
+        <v>0.1043048950884939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.06420352988079292</v>
+        <v>-0.06241329131957267</v>
       </c>
       <c r="C54">
-        <v>-0.02288363624455998</v>
+        <v>-0.002899824970853512</v>
       </c>
       <c r="D54">
-        <v>0.01795790047076032</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01870524486771457</v>
+      </c>
+      <c r="E54">
+        <v>0.06351472666064041</v>
+      </c>
+      <c r="F54">
+        <v>0.03439877748046195</v>
+      </c>
+      <c r="G54">
+        <v>-0.04904619534834395</v>
+      </c>
+      <c r="H54">
+        <v>-0.04046468948730016</v>
+      </c>
+      <c r="I54">
+        <v>-0.1210214781217781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1011078941695811</v>
+        <v>-0.1008483658153031</v>
       </c>
       <c r="C55">
-        <v>-0.04842323499182114</v>
+        <v>-0.01484360174041483</v>
       </c>
       <c r="D55">
-        <v>0.0121956422663594</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0405051606585044</v>
+      </c>
+      <c r="E55">
+        <v>-0.003182300416830687</v>
+      </c>
+      <c r="F55">
+        <v>0.02316134650874218</v>
+      </c>
+      <c r="G55">
+        <v>-0.02655116928567007</v>
+      </c>
+      <c r="H55">
+        <v>-0.1545017578964395</v>
+      </c>
+      <c r="I55">
+        <v>0.0263684774079737</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1447901401183323</v>
+        <v>-0.1500570377058449</v>
       </c>
       <c r="C56">
-        <v>-0.09190789385989112</v>
+        <v>-0.01139757431707836</v>
       </c>
       <c r="D56">
-        <v>-0.0070768234898591</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0756352094734727</v>
+      </c>
+      <c r="E56">
+        <v>-0.01369777635800993</v>
+      </c>
+      <c r="F56">
+        <v>0.01421630349962329</v>
+      </c>
+      <c r="G56">
+        <v>-0.02524961546304419</v>
+      </c>
+      <c r="H56">
+        <v>-0.197817119850826</v>
+      </c>
+      <c r="I56">
+        <v>0.1160376351050032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1206521238682846</v>
+        <v>-0.08760745608099275</v>
       </c>
       <c r="C58">
-        <v>0.04334388767559334</v>
+        <v>-0.0624501078463767</v>
       </c>
       <c r="D58">
-        <v>0.05621880028405018</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06012104565790765</v>
+      </c>
+      <c r="E58">
+        <v>0.1116042799190534</v>
+      </c>
+      <c r="F58">
+        <v>0.05200022949913825</v>
+      </c>
+      <c r="G58">
+        <v>0.1165365944469506</v>
+      </c>
+      <c r="H58">
+        <v>0.1703519746813331</v>
+      </c>
+      <c r="I58">
+        <v>-0.5450577305874742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1274820253700338</v>
+        <v>-0.1600451742930311</v>
       </c>
       <c r="C59">
-        <v>-0.07729911029714182</v>
+        <v>0.3572003566453748</v>
       </c>
       <c r="D59">
-        <v>-0.4375588410711791</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0893658715497487</v>
+      </c>
+      <c r="E59">
+        <v>-0.003750890498191124</v>
+      </c>
+      <c r="F59">
+        <v>0.002940848570443716</v>
+      </c>
+      <c r="G59">
+        <v>-0.01321141032819056</v>
+      </c>
+      <c r="H59">
+        <v>-0.02429853219021683</v>
+      </c>
+      <c r="I59">
+        <v>0.04340279617416629</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2110461085653052</v>
+        <v>-0.2402562478092042</v>
       </c>
       <c r="C60">
-        <v>-0.08189246643256481</v>
+        <v>-0.01626681833671272</v>
       </c>
       <c r="D60">
-        <v>0.002563310225717488</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.07334192648145627</v>
+      </c>
+      <c r="E60">
+        <v>-0.149294830202586</v>
+      </c>
+      <c r="F60">
+        <v>0.01889832324800562</v>
+      </c>
+      <c r="G60">
+        <v>0.0007413365463341781</v>
+      </c>
+      <c r="H60">
+        <v>0.154487871707519</v>
+      </c>
+      <c r="I60">
+        <v>0.1197955204087768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.07947463887804189</v>
+        <v>-0.08674732230642677</v>
       </c>
       <c r="C61">
-        <v>-0.04918939438182862</v>
+        <v>-0.02107047170198742</v>
       </c>
       <c r="D61">
-        <v>0.0260370598086471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05198106337452982</v>
+      </c>
+      <c r="E61">
+        <v>0.01263730860490472</v>
+      </c>
+      <c r="F61">
+        <v>0.02656802463358033</v>
+      </c>
+      <c r="G61">
+        <v>-0.04269096075706093</v>
+      </c>
+      <c r="H61">
+        <v>-0.06862429647274816</v>
+      </c>
+      <c r="I61">
+        <v>-0.03259224601117525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>-0.1355142128223983</v>
+        <v>-0.140850896433893</v>
       </c>
       <c r="C62">
-        <v>-0.05158087791905959</v>
+        <v>-0.0258516567219728</v>
       </c>
       <c r="D62">
-        <v>-0.003973583605960295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04476732814274197</v>
+      </c>
+      <c r="E62">
+        <v>-0.04060028009016087</v>
+      </c>
+      <c r="F62">
+        <v>-0.03443317426314142</v>
+      </c>
+      <c r="G62">
+        <v>-0.05416417615378819</v>
+      </c>
+      <c r="H62">
+        <v>-0.1942770330061457</v>
+      </c>
+      <c r="I62">
+        <v>0.1153105128980866</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.05725292092661806</v>
+        <v>-0.0513530891029975</v>
       </c>
       <c r="C63">
-        <v>-0.01866894876616255</v>
+        <v>-0.01641956554868161</v>
       </c>
       <c r="D63">
-        <v>0.02488647311649665</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01742686001004255</v>
+      </c>
+      <c r="E63">
+        <v>0.02531182752344671</v>
+      </c>
+      <c r="F63">
+        <v>0.008358073973059522</v>
+      </c>
+      <c r="G63">
+        <v>-0.050702936540586</v>
+      </c>
+      <c r="H63">
+        <v>-0.0344015707623785</v>
+      </c>
+      <c r="I63">
+        <v>-0.03194825778517506</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.1052022057508703</v>
+        <v>-0.1106798551245178</v>
       </c>
       <c r="C64">
-        <v>-0.03160472891186628</v>
+        <v>-0.011146839638202</v>
       </c>
       <c r="D64">
-        <v>0.0151251525774396</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02925792535783158</v>
+      </c>
+      <c r="E64">
+        <v>0.03191173964438343</v>
+      </c>
+      <c r="F64">
+        <v>0.05877827042705789</v>
+      </c>
+      <c r="G64">
+        <v>-0.0440270221812956</v>
+      </c>
+      <c r="H64">
+        <v>-0.008066720787478108</v>
+      </c>
+      <c r="I64">
+        <v>-0.05227227586178988</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.1278748293401371</v>
+        <v>-0.1325913501955699</v>
       </c>
       <c r="C65">
-        <v>-0.04693323994641985</v>
+        <v>0.004159048937705231</v>
       </c>
       <c r="D65">
-        <v>0.02395782095958185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03932723049016022</v>
+      </c>
+      <c r="E65">
+        <v>-0.006811584589613276</v>
+      </c>
+      <c r="F65">
+        <v>0.02380805042226654</v>
+      </c>
+      <c r="G65">
+        <v>-0.09134714227792511</v>
+      </c>
+      <c r="H65">
+        <v>0.2147994638971447</v>
+      </c>
+      <c r="I65">
+        <v>-0.03436775440803668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.1509888180163512</v>
+        <v>-0.1466172306547761</v>
       </c>
       <c r="C66">
-        <v>-0.08082677368016772</v>
+        <v>-0.07104839647461007</v>
       </c>
       <c r="D66">
-        <v>0.08473728228858329</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09254323068993081</v>
+      </c>
+      <c r="E66">
+        <v>-0.002291463949137134</v>
+      </c>
+      <c r="F66">
+        <v>0.01384508208198635</v>
+      </c>
+      <c r="G66">
+        <v>-0.07482832368940222</v>
+      </c>
+      <c r="H66">
+        <v>-0.07547707120292269</v>
+      </c>
+      <c r="I66">
+        <v>-0.1101978670798828</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.09465240292646301</v>
+        <v>-0.09955664244038542</v>
       </c>
       <c r="C67">
-        <v>-0.00672882560501309</v>
+        <v>-0.03213052608640278</v>
       </c>
       <c r="D67">
-        <v>0.004855817846028164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007917587821398876</v>
+      </c>
+      <c r="E67">
+        <v>0.0004881232537519339</v>
+      </c>
+      <c r="F67">
+        <v>0.01461905263755672</v>
+      </c>
+      <c r="G67">
+        <v>0.01712297649941396</v>
+      </c>
+      <c r="H67">
+        <v>-0.02797571180161481</v>
+      </c>
+      <c r="I67">
+        <v>0.02041422518022551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.04738861829998047</v>
+        <v>-0.07308097750070222</v>
       </c>
       <c r="C68">
-        <v>-0.04279255715308655</v>
+        <v>0.2763723399547415</v>
       </c>
       <c r="D68">
-        <v>-0.2566133685338765</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.06499713200634437</v>
+      </c>
+      <c r="E68">
+        <v>0.03463359397618188</v>
+      </c>
+      <c r="F68">
+        <v>0.02102682284217667</v>
+      </c>
+      <c r="G68">
+        <v>0.005267060220823526</v>
+      </c>
+      <c r="H68">
+        <v>-0.01637533668215829</v>
+      </c>
+      <c r="I68">
+        <v>-0.01700645370658823</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06356072100917198</v>
+        <v>-0.05605732653982647</v>
       </c>
       <c r="C69">
-        <v>-0.02406524563012521</v>
+        <v>-0.01545907101620634</v>
       </c>
       <c r="D69">
-        <v>0.01522635643201131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0148328345104005</v>
+      </c>
+      <c r="E69">
+        <v>0.02810123221750006</v>
+      </c>
+      <c r="F69">
+        <v>-0.009196727531218054</v>
+      </c>
+      <c r="G69">
+        <v>-0.004149399438448353</v>
+      </c>
+      <c r="H69">
+        <v>-0.03914732772355734</v>
+      </c>
+      <c r="I69">
+        <v>-0.0121107423092678</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>-0.01124904957479884</v>
+        <v>-0.03306933793404811</v>
       </c>
       <c r="C70">
-        <v>-0.001903283901035393</v>
+        <v>0.002439078790226824</v>
       </c>
       <c r="D70">
-        <v>-0.01488756173393668</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.001993360797001552</v>
+      </c>
+      <c r="E70">
+        <v>-0.02766881352366468</v>
+      </c>
+      <c r="F70">
+        <v>-0.00548889253803323</v>
+      </c>
+      <c r="G70">
+        <v>-0.0005998511495690539</v>
+      </c>
+      <c r="H70">
+        <v>0.02959543057445096</v>
+      </c>
+      <c r="I70">
+        <v>-0.01467867925764219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.04549158330762298</v>
+        <v>-0.07864765442685361</v>
       </c>
       <c r="C71">
-        <v>-0.03725607468930112</v>
+        <v>0.2958697893165785</v>
       </c>
       <c r="D71">
-        <v>-0.290397274750167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.07357084172886504</v>
+      </c>
+      <c r="E71">
+        <v>0.02220016820062649</v>
+      </c>
+      <c r="F71">
+        <v>0.04358908350695311</v>
+      </c>
+      <c r="G71">
+        <v>0.0001072938758917872</v>
+      </c>
+      <c r="H71">
+        <v>-0.01970033070811139</v>
+      </c>
+      <c r="I71">
+        <v>-0.01380026647308995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1416488866538442</v>
+        <v>-0.1375141649143849</v>
       </c>
       <c r="C72">
-        <v>-0.04276341173000656</v>
+        <v>0.004249844770224862</v>
       </c>
       <c r="D72">
-        <v>-0.02461204611960928</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01232438622511309</v>
+      </c>
+      <c r="E72">
+        <v>-0.004114579713630093</v>
+      </c>
+      <c r="F72">
+        <v>-0.1659054350189738</v>
+      </c>
+      <c r="G72">
+        <v>-0.1114998603578142</v>
+      </c>
+      <c r="H72">
+        <v>-0.01305074024055356</v>
+      </c>
+      <c r="I72">
+        <v>0.01270262703427827</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2627442468883532</v>
+        <v>-0.2643335863151209</v>
       </c>
       <c r="C73">
-        <v>-0.06482578755196304</v>
+        <v>-0.09101859742180719</v>
       </c>
       <c r="D73">
-        <v>0.06809735396888673</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.06054450036223733</v>
+      </c>
+      <c r="E73">
+        <v>-0.3346285843023954</v>
+      </c>
+      <c r="F73">
+        <v>-0.006068130818152569</v>
+      </c>
+      <c r="G73">
+        <v>0.220014735521798</v>
+      </c>
+      <c r="H73">
+        <v>0.3093377050148788</v>
+      </c>
+      <c r="I73">
+        <v>0.04234943645381254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.08333369079775482</v>
+        <v>-0.09120772577327965</v>
       </c>
       <c r="C74">
-        <v>-0.07792662857559841</v>
+        <v>-0.01275180517019198</v>
       </c>
       <c r="D74">
-        <v>0.005152345601605285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.07268306703698824</v>
+      </c>
+      <c r="E74">
+        <v>-0.003273346042792379</v>
+      </c>
+      <c r="F74">
+        <v>0.00173573313533236</v>
+      </c>
+      <c r="G74">
+        <v>0.01901889148848095</v>
+      </c>
+      <c r="H74">
+        <v>-0.127476271871569</v>
+      </c>
+      <c r="I74">
+        <v>0.02087214155190967</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1131602936905264</v>
+        <v>-0.1058880923078295</v>
       </c>
       <c r="C75">
-        <v>-0.04798241244202275</v>
+        <v>-0.01931279113161603</v>
       </c>
       <c r="D75">
-        <v>0.00249234117624896</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02770095896112356</v>
+      </c>
+      <c r="E75">
+        <v>0.003291286632442663</v>
+      </c>
+      <c r="F75">
+        <v>-0.004819220092862329</v>
+      </c>
+      <c r="G75">
+        <v>0.003448418647344435</v>
+      </c>
+      <c r="H75">
+        <v>-0.1118380764478327</v>
+      </c>
+      <c r="I75">
+        <v>0.05703134381578151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1302976778623273</v>
+        <v>-0.1320173632165293</v>
       </c>
       <c r="C76">
-        <v>-0.07239010275522349</v>
+        <v>-0.03366630533564949</v>
       </c>
       <c r="D76">
-        <v>0.02793823309251144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07543133390567856</v>
+      </c>
+      <c r="E76">
+        <v>0.008260621645036038</v>
+      </c>
+      <c r="F76">
+        <v>0.03401376773094451</v>
+      </c>
+      <c r="G76">
+        <v>-0.02988110764101937</v>
+      </c>
+      <c r="H76">
+        <v>-0.2547101611233524</v>
+      </c>
+      <c r="I76">
+        <v>0.09802049718866616</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1308049093195102</v>
+        <v>-0.1008545772981519</v>
       </c>
       <c r="C77">
-        <v>0.03161182039223936</v>
+        <v>-0.05497333885077738</v>
       </c>
       <c r="D77">
-        <v>0.06406890768217835</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05330837613514995</v>
+      </c>
+      <c r="E77">
+        <v>0.1281900637760241</v>
+      </c>
+      <c r="F77">
+        <v>0.0762868395423368</v>
+      </c>
+      <c r="G77">
+        <v>-0.7728294388297009</v>
+      </c>
+      <c r="H77">
+        <v>0.3045233919912836</v>
+      </c>
+      <c r="I77">
+        <v>0.2616396080338818</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.1104855589134838</v>
+        <v>-0.1513870624378598</v>
       </c>
       <c r="C78">
-        <v>-0.02714970478431224</v>
+        <v>-0.05019886005737271</v>
       </c>
       <c r="D78">
-        <v>0.07787105718196166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0596602465472271</v>
+      </c>
+      <c r="E78">
+        <v>0.09745095011116901</v>
+      </c>
+      <c r="F78">
+        <v>0.06489143341552221</v>
+      </c>
+      <c r="G78">
+        <v>0.008022898225479851</v>
+      </c>
+      <c r="H78">
+        <v>0.1455136134028128</v>
+      </c>
+      <c r="I78">
+        <v>-0.04678921380024479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1396812478410269</v>
+        <v>-0.1424115278741745</v>
       </c>
       <c r="C79">
-        <v>-0.05168734228538448</v>
+        <v>-0.03131818927545031</v>
       </c>
       <c r="D79">
-        <v>0.02909542266477076</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04486059255712571</v>
+      </c>
+      <c r="E79">
+        <v>-0.01487908625938151</v>
+      </c>
+      <c r="F79">
+        <v>0.01843815597209136</v>
+      </c>
+      <c r="G79">
+        <v>-0.03346046783972781</v>
+      </c>
+      <c r="H79">
+        <v>-0.1710718450230731</v>
+      </c>
+      <c r="I79">
+        <v>0.07872777927051852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.03588940797355804</v>
+        <v>-0.04092485844147049</v>
       </c>
       <c r="C80">
-        <v>-0.01888092558872562</v>
+        <v>-0.005337945565577686</v>
       </c>
       <c r="D80">
-        <v>0.02426547577070466</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02308385815337353</v>
+      </c>
+      <c r="E80">
+        <v>-0.05398104740899302</v>
+      </c>
+      <c r="F80">
+        <v>-1.811321374282349e-05</v>
+      </c>
+      <c r="G80">
+        <v>0.00791575875909074</v>
+      </c>
+      <c r="H80">
+        <v>-0.02419083395520922</v>
+      </c>
+      <c r="I80">
+        <v>-0.1197574957849991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1352789325289665</v>
+        <v>-0.1309289685984166</v>
       </c>
       <c r="C81">
-        <v>-0.06803070578392967</v>
+        <v>-0.01197368380078828</v>
       </c>
       <c r="D81">
-        <v>0.009144272686675932</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04967588572945743</v>
+      </c>
+      <c r="E81">
+        <v>-0.002179774340902514</v>
+      </c>
+      <c r="F81">
+        <v>0.01823581000454864</v>
+      </c>
+      <c r="G81">
+        <v>-0.006285077314644443</v>
+      </c>
+      <c r="H81">
+        <v>-0.1590562010635385</v>
+      </c>
+      <c r="I81">
+        <v>0.0243439027366886</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1270182959805483</v>
+        <v>-0.1242596371374251</v>
       </c>
       <c r="C82">
-        <v>-0.06133152221162218</v>
+        <v>-0.01748969713505956</v>
       </c>
       <c r="D82">
-        <v>0.01313548865694741</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.05218558173913798</v>
+      </c>
+      <c r="E82">
+        <v>-0.01374369191796767</v>
+      </c>
+      <c r="F82">
+        <v>0.03015284993968479</v>
+      </c>
+      <c r="G82">
+        <v>-0.0008943521214659164</v>
+      </c>
+      <c r="H82">
+        <v>-0.2479346544951515</v>
+      </c>
+      <c r="I82">
+        <v>0.1058165985328082</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06727878099562207</v>
+        <v>-0.08138754190856606</v>
       </c>
       <c r="C83">
-        <v>0.04679958363654149</v>
+        <v>-0.03298090606851165</v>
       </c>
       <c r="D83">
-        <v>-0.008362530392577724</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04534833558069127</v>
+      </c>
+      <c r="E83">
+        <v>-0.001874077008971076</v>
+      </c>
+      <c r="F83">
+        <v>0.03820022735299271</v>
+      </c>
+      <c r="G83">
+        <v>0.06702073133136935</v>
+      </c>
+      <c r="H83">
+        <v>0.003514448697214321</v>
+      </c>
+      <c r="I83">
+        <v>-0.1002114590152566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.03754308463265215</v>
+        <v>-0.03395787326547849</v>
       </c>
       <c r="C84">
-        <v>-0.03289159315226187</v>
+        <v>-0.03235097681973811</v>
       </c>
       <c r="D84">
-        <v>0.03125339135673737</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03580532008534129</v>
+      </c>
+      <c r="E84">
+        <v>0.03225904139795489</v>
+      </c>
+      <c r="F84">
+        <v>-0.04083293161005615</v>
+      </c>
+      <c r="G84">
+        <v>0.03720056689492462</v>
+      </c>
+      <c r="H84">
+        <v>-0.04065620751901788</v>
+      </c>
+      <c r="I84">
+        <v>-0.09401137809468579</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1149353656252653</v>
+        <v>-0.1204921025885633</v>
       </c>
       <c r="C85">
-        <v>-0.02919987512842041</v>
+        <v>-0.03002908624204855</v>
       </c>
       <c r="D85">
-        <v>0.03868694773049023</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02972562733666075</v>
+      </c>
+      <c r="E85">
+        <v>-0.007743334397720235</v>
+      </c>
+      <c r="F85">
+        <v>0.04517249897950165</v>
+      </c>
+      <c r="G85">
+        <v>-0.005112672708938007</v>
+      </c>
+      <c r="H85">
+        <v>-0.1587084523547254</v>
+      </c>
+      <c r="I85">
+        <v>0.0652348276659374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.06294323755175846</v>
+        <v>-0.06089735247210527</v>
       </c>
       <c r="C86">
-        <v>-0.02427712307594546</v>
+        <v>-0.02681026927648718</v>
       </c>
       <c r="D86">
-        <v>0.0636027768061949</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02339138707705231</v>
+      </c>
+      <c r="E86">
+        <v>0.01858622345986933</v>
+      </c>
+      <c r="F86">
+        <v>0.02101819786182132</v>
+      </c>
+      <c r="G86">
+        <v>0.01775070988028701</v>
+      </c>
+      <c r="H86">
+        <v>0.05605029510442462</v>
+      </c>
+      <c r="I86">
+        <v>0.04020631163805911</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.1246140572491388</v>
+        <v>-0.127391185622125</v>
       </c>
       <c r="C87">
-        <v>-0.06198848934653354</v>
+        <v>-0.05791150438634474</v>
       </c>
       <c r="D87">
-        <v>0.09249160849759884</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06335624234286402</v>
+      </c>
+      <c r="E87">
+        <v>0.05422761862587288</v>
+      </c>
+      <c r="F87">
+        <v>0.03678545079010787</v>
+      </c>
+      <c r="G87">
+        <v>-0.1500519712113177</v>
+      </c>
+      <c r="H87">
+        <v>0.09904486789723291</v>
+      </c>
+      <c r="I87">
+        <v>0.00235977621964991</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.06044688500028703</v>
+        <v>-0.06462474228899374</v>
       </c>
       <c r="C88">
-        <v>-0.03165590325465474</v>
+        <v>-0.02968719915688171</v>
       </c>
       <c r="D88">
-        <v>0.0249414144631851</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03910593528482391</v>
+      </c>
+      <c r="E88">
+        <v>-0.005879654371412859</v>
+      </c>
+      <c r="F88">
+        <v>0.0207910707494713</v>
+      </c>
+      <c r="G88">
+        <v>-0.01464472627436135</v>
+      </c>
+      <c r="H88">
+        <v>-0.04176175316258917</v>
+      </c>
+      <c r="I88">
+        <v>-0.0315876956542911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.07294096356791085</v>
+        <v>-0.1252359998068092</v>
       </c>
       <c r="C89">
-        <v>-0.07360079142766511</v>
+        <v>0.3750417258343515</v>
       </c>
       <c r="D89">
-        <v>-0.3198672671080952</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.06468899988621914</v>
+      </c>
+      <c r="E89">
+        <v>0.0277187954993661</v>
+      </c>
+      <c r="F89">
+        <v>0.08942047634341234</v>
+      </c>
+      <c r="G89">
+        <v>0.01841538684586252</v>
+      </c>
+      <c r="H89">
+        <v>-0.009144276506714233</v>
+      </c>
+      <c r="I89">
+        <v>-0.08437953075195886</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.06323792315555279</v>
+        <v>-0.08978326425262476</v>
       </c>
       <c r="C90">
-        <v>-0.03930791254683925</v>
+        <v>0.2766321076040476</v>
       </c>
       <c r="D90">
-        <v>-0.2820792356677368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.07283053168168792</v>
+      </c>
+      <c r="E90">
+        <v>0.01653381273302634</v>
+      </c>
+      <c r="F90">
+        <v>0.03421597392573384</v>
+      </c>
+      <c r="G90">
+        <v>-0.002898391888387576</v>
+      </c>
+      <c r="H90">
+        <v>0.01047000452407066</v>
+      </c>
+      <c r="I90">
+        <v>-0.09613381351664696</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.09665915034581876</v>
+        <v>-0.09084376615118661</v>
       </c>
       <c r="C91">
-        <v>-0.04979013404536496</v>
+        <v>-0.02154362723533378</v>
       </c>
       <c r="D91">
-        <v>0.009293991973258782</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03628299770736892</v>
+      </c>
+      <c r="E91">
+        <v>0.0009039999983445784</v>
+      </c>
+      <c r="F91">
+        <v>0.003316801266613612</v>
+      </c>
+      <c r="G91">
+        <v>0.01569228640878494</v>
+      </c>
+      <c r="H91">
+        <v>-0.08558552582009528</v>
+      </c>
+      <c r="I91">
+        <v>0.04241325554450492</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06039819466148566</v>
+        <v>-0.09339140605133966</v>
       </c>
       <c r="C92">
-        <v>-0.06291420636240841</v>
+        <v>0.331507128715185</v>
       </c>
       <c r="D92">
-        <v>-0.3284351756584662</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.06939085404407054</v>
+      </c>
+      <c r="E92">
+        <v>0.02429800429205593</v>
+      </c>
+      <c r="F92">
+        <v>0.04219903304005488</v>
+      </c>
+      <c r="G92">
+        <v>-0.001488538792885613</v>
+      </c>
+      <c r="H92">
+        <v>-0.02118622876428772</v>
+      </c>
+      <c r="I92">
+        <v>-0.02283306498031687</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.05426370920110591</v>
+        <v>-0.09207075870560003</v>
       </c>
       <c r="C93">
-        <v>-0.05392916041757893</v>
+        <v>0.3143066166532534</v>
       </c>
       <c r="D93">
-        <v>-0.3082414600449953</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.06407429172439051</v>
+      </c>
+      <c r="E93">
+        <v>0.000290529416437104</v>
+      </c>
+      <c r="F93">
+        <v>0.02815663601866342</v>
+      </c>
+      <c r="G93">
+        <v>-0.008818258238685896</v>
+      </c>
+      <c r="H93">
+        <v>0.005162684420541718</v>
+      </c>
+      <c r="I93">
+        <v>-0.00867191825061204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1273781815586021</v>
+        <v>-0.1256022230641041</v>
       </c>
       <c r="C94">
-        <v>-0.03034415322545425</v>
+        <v>-0.04120710892652744</v>
       </c>
       <c r="D94">
-        <v>0.0525602461555887</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02475221033614364</v>
+      </c>
+      <c r="E94">
+        <v>0.001110882184800177</v>
+      </c>
+      <c r="F94">
+        <v>0.01853729725179479</v>
+      </c>
+      <c r="G94">
+        <v>0.05750165608777796</v>
+      </c>
+      <c r="H94">
+        <v>-0.1079498521627661</v>
+      </c>
+      <c r="I94">
+        <v>0.05113141001816469</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.124705444496195</v>
+        <v>-0.135811244199978</v>
       </c>
       <c r="C95">
-        <v>-0.01558730503277198</v>
+        <v>-0.05980903031690753</v>
       </c>
       <c r="D95">
-        <v>0.07784041311472541</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.02212516703187217</v>
+      </c>
+      <c r="E95">
+        <v>0.01852086846409319</v>
+      </c>
+      <c r="F95">
+        <v>0.04822026915559383</v>
+      </c>
+      <c r="G95">
+        <v>-0.0500477692153783</v>
+      </c>
+      <c r="H95">
+        <v>0.1322454452029592</v>
+      </c>
+      <c r="I95">
+        <v>-0.04952505655156004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>-0.233238972023941</v>
+        <v>-0.184590234084731</v>
       </c>
       <c r="C97">
-        <v>-0.06309566554269401</v>
+        <v>0.03252802754409057</v>
       </c>
       <c r="D97">
-        <v>-0.1153671476905847</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.04107651599580795</v>
+      </c>
+      <c r="E97">
+        <v>0.1597702861822613</v>
+      </c>
+      <c r="F97">
+        <v>-0.9243922544907903</v>
+      </c>
+      <c r="G97">
+        <v>-0.06234828707377005</v>
+      </c>
+      <c r="H97">
+        <v>0.006267320828012487</v>
+      </c>
+      <c r="I97">
+        <v>-0.09248329465757005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2572104488337634</v>
+        <v>-0.2772911479480899</v>
       </c>
       <c r="C98">
-        <v>-0.075187197541636</v>
+        <v>-0.05234877867256268</v>
       </c>
       <c r="D98">
-        <v>0.0253753807500709</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06386166456205677</v>
+      </c>
+      <c r="E98">
+        <v>-0.2688692486269947</v>
+      </c>
+      <c r="F98">
+        <v>-0.05797500583962929</v>
+      </c>
+      <c r="G98">
+        <v>0.2579047536143121</v>
+      </c>
+      <c r="H98">
+        <v>0.1692295773196988</v>
+      </c>
+      <c r="I98">
+        <v>0.2004876115714378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>-0.3579169159486408</v>
+        <v>-0.2293823133908514</v>
       </c>
       <c r="C99">
-        <v>0.9092687086926865</v>
+        <v>-0.2811445844972922</v>
       </c>
       <c r="D99">
-        <v>-0.07859453785356381</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.9038531298928069</v>
+      </c>
+      <c r="E99">
+        <v>-0.03542949819996476</v>
+      </c>
+      <c r="F99">
+        <v>0.07250751098286597</v>
+      </c>
+      <c r="G99">
+        <v>0.02220112563545113</v>
+      </c>
+      <c r="H99">
+        <v>-0.1088411172396384</v>
+      </c>
+      <c r="I99">
+        <v>0.007199168284823557</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.05209667258058154</v>
+        <v>-0.05437652212529487</v>
       </c>
       <c r="C101">
-        <v>-0.0465485186899286</v>
+        <v>0.00453632796933917</v>
       </c>
       <c r="D101">
-        <v>-0.003382040275799312</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03896795590487297</v>
+      </c>
+      <c r="E101">
+        <v>0.0342673751322909</v>
+      </c>
+      <c r="F101">
+        <v>0.03608054081854589</v>
+      </c>
+      <c r="G101">
+        <v>-0.01422582819413525</v>
+      </c>
+      <c r="H101">
+        <v>-0.08530895376649064</v>
+      </c>
+      <c r="I101">
+        <v>-0.0418635429827177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
